--- a/examples/blog2_input_simple.xlsx
+++ b/examples/blog2_input_simple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuxinl/Documents/CIMC/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DE7254-230E-2E44-B93E-0F8FB48DE670}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E4844E-0AEB-BD44-9783-1BC59A9B0DE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1440" windowWidth="27240" windowHeight="15580" xr2:uid="{359033D0-C878-324C-B11E-7456EF9EB259}"/>
   </bookViews>
@@ -25,7 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>target_cpu_rate</t>
+  </si>
   <si>
     <t>vcpu</t>
   </si>
@@ -70,6 +73,9 @@
   </si>
   <si>
     <t xml:space="preserve">enprds4db01 </t>
+  </si>
+  <si>
+    <t>target_memory_rate</t>
   </si>
 </sst>
 </file>
@@ -101,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -124,16 +130,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0DDDD8-0138-6D45-A0B7-A2EF3AA14331}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -459,21 +477,29 @@
     <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>64</v>
       </c>
@@ -481,10 +507,16 @@
         <v>256</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>64</v>
       </c>
@@ -492,10 +524,16 @@
         <v>256</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>16</v>
       </c>
@@ -503,10 +541,16 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>16</v>
       </c>
@@ -514,10 +558,16 @@
         <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -525,10 +575,16 @@
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -536,10 +592,16 @@
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -547,10 +609,16 @@
         <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -558,10 +626,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -569,10 +643,16 @@
         <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -580,10 +660,16 @@
         <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>64</v>
       </c>
@@ -591,10 +677,16 @@
         <v>256</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>64</v>
       </c>
@@ -602,7 +694,13 @@
         <v>256</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
